--- a/Assets/06.Table/TowerTable16.xlsx
+++ b/Assets/06.Table/TowerTable16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCAFB94-5281-4C4D-A623-C72EE9FEE89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAF6D0B-05B4-453C-A571-AF864F7D1AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable16" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,14 +504,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
@@ -523,7 +523,7 @@
     <col min="9" max="9" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -587,7 +587,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -620,7 +620,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F32" si="0">F3*5</f>
+        <f t="shared" ref="F4:F42" si="0">F3*5</f>
         <v>2.5000000000000001E+205</v>
       </c>
       <c r="G4">
@@ -654,7 +654,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -665,7 +665,7 @@
         <v>9034</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D32" si="1">D3+1</f>
+        <f t="shared" ref="D5:D42" si="1">D3+1</f>
         <v>11</v>
       </c>
       <c r="E5">
@@ -688,7 +688,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -722,7 +722,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -757,7 +757,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -792,7 +792,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -827,7 +827,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -862,7 +862,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -897,7 +897,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -932,7 +932,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -967,7 +967,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1177,12 +1177,12 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" ref="B20:B32" si="3">B15</f>
+        <f t="shared" ref="B20:B42" si="3">B15</f>
         <v>1-4</v>
       </c>
       <c r="C20" s="3">
@@ -1212,7 +1212,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1632,9 +1632,359 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6566128730773928E+225</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3283064365386964E+226</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1641532182693483E+227</v>
+      </c>
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>5.820766091346741E+227</v>
+      </c>
+      <c r="G36">
+        <v>1000</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9103830456733707E+228</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4551915228366855E+229</v>
+      </c>
+      <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>7.2759576141834274E+229</v>
+      </c>
+      <c r="G39">
+        <v>1000</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-4</v>
+      </c>
+      <c r="C40" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6379788070917136E+230</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-5</v>
+      </c>
+      <c r="C41" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8189894035458566E+231</v>
+      </c>
+      <c r="G41">
+        <v>1000</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0949470177292831E+231</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B32 D2:J32">
+  <conditionalFormatting sqref="A2:B42 D2:J42">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -1649,17 +1999,17 @@
   <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>

--- a/Assets/06.Table/TowerTable16.xlsx
+++ b/Assets/06.Table/TowerTable16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAF6D0B-05B4-453C-A571-AF864F7D1AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A508A4-E044-4CC4-B7D1-F865235F4635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -504,11 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F42" si="0">F3*5</f>
+        <f t="shared" ref="F4:F47" si="0">F3*5</f>
         <v>2.5000000000000001E+205</v>
       </c>
       <c r="G4">
@@ -665,7 +665,7 @@
         <v>9034</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D42" si="1">D3+1</f>
+        <f t="shared" ref="D5:D47" si="1">D3+1</f>
         <v>11</v>
       </c>
       <c r="E5">
@@ -1182,7 +1182,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" ref="B20:B42" si="3">B15</f>
+        <f t="shared" ref="B20:B47" si="3">B15</f>
         <v>1-4</v>
       </c>
       <c r="C20" s="3">
@@ -1982,9 +1982,184 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5474735088646414E+232</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-3</v>
+      </c>
+      <c r="C44" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2737367544323208E+233</v>
+      </c>
+      <c r="G44">
+        <v>1000</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-4</v>
+      </c>
+      <c r="C45" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1368683772161604E+234</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-5</v>
+      </c>
+      <c r="C46" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6843418860808025E+234</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-1</v>
+      </c>
+      <c r="C47" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8421709430404011E+235</v>
+      </c>
+      <c r="G47">
+        <v>1000</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B42 D2:J42">
+  <conditionalFormatting sqref="A2:B47 D2:J47">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable16.xlsx
+++ b/Assets/06.Table/TowerTable16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A508A4-E044-4CC4-B7D1-F865235F4635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC21D9CF-5F8E-475D-A7D2-7D8897AC9484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -504,11 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F47" si="0">F3*5</f>
+        <f t="shared" ref="F4:F53" si="0">F3*5</f>
         <v>2.5000000000000001E+205</v>
       </c>
       <c r="G4">
@@ -665,7 +665,7 @@
         <v>9034</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D47" si="1">D3+1</f>
+        <f t="shared" ref="D5:D53" si="1">D3+1</f>
         <v>11</v>
       </c>
       <c r="E5">
@@ -1182,7 +1182,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" ref="B20:B47" si="3">B15</f>
+        <f t="shared" ref="B20:B53" si="3">B15</f>
         <v>1-4</v>
       </c>
       <c r="C20" s="3">
@@ -2157,9 +2157,219 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4210854715202005E+236</v>
+      </c>
+      <c r="G48">
+        <v>1000</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-3</v>
+      </c>
+      <c r="C49" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="0"/>
+        <v>7.1054273576010022E+236</v>
+      </c>
+      <c r="G49">
+        <v>1000</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-4</v>
+      </c>
+      <c r="C50" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5527136788005013E+237</v>
+      </c>
+      <c r="G50">
+        <v>1000</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-5</v>
+      </c>
+      <c r="C51" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7763568394002506E+238</v>
+      </c>
+      <c r="G51">
+        <v>1000</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-1</v>
+      </c>
+      <c r="C52" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="0"/>
+        <v>8.8817841970012529E+238</v>
+      </c>
+      <c r="G52">
+        <v>1000</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4408920985006261E+239</v>
+      </c>
+      <c r="G53">
+        <v>1000</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>12200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B47 D2:J47">
+  <conditionalFormatting sqref="A2:B53 D2:J53">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable16.xlsx
+++ b/Assets/06.Table/TowerTable16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC21D9CF-5F8E-475D-A7D2-7D8897AC9484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865C8BBB-D22F-4C5D-A886-85B2B7775A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -504,11 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F53" si="0">F3*5</f>
+        <f t="shared" ref="F4:F59" si="0">F3*5</f>
         <v>2.5000000000000001E+205</v>
       </c>
       <c r="G4">
@@ -665,7 +665,7 @@
         <v>9034</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D53" si="1">D3+1</f>
+        <f t="shared" ref="D5:D59" si="1">D3+1</f>
         <v>11</v>
       </c>
       <c r="E5">
@@ -1182,7 +1182,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" ref="B20:B53" si="3">B15</f>
+        <f t="shared" ref="B20:B59" si="3">B15</f>
         <v>1-4</v>
       </c>
       <c r="C20" s="3">
@@ -2367,9 +2367,219 @@
         <v>12200</v>
       </c>
     </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-3</v>
+      </c>
+      <c r="C54" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2204460492503131E+240</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-4</v>
+      </c>
+      <c r="C55" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1102230246251566E+241</v>
+      </c>
+      <c r="G55">
+        <v>1000</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-5</v>
+      </c>
+      <c r="C56" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="0"/>
+        <v>5.551115123125783E+241</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-1</v>
+      </c>
+      <c r="C57" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7755575615628916E+242</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-2</v>
+      </c>
+      <c r="C58" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3877787807814458E+243</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-3</v>
+      </c>
+      <c r="C59" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9388939039072294E+243</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>13400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B53 D2:J53">
+  <conditionalFormatting sqref="A2:B59 D2:J59">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable16.xlsx
+++ b/Assets/06.Table/TowerTable16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865C8BBB-D22F-4C5D-A886-85B2B7775A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF262A40-9C1C-48FB-8B6A-26F633D350BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -504,11 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F59" si="0">F3*5</f>
+        <f t="shared" ref="F4:F64" si="0">F3*5</f>
         <v>2.5000000000000001E+205</v>
       </c>
       <c r="G4">
@@ -665,7 +665,7 @@
         <v>9034</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D59" si="1">D3+1</f>
+        <f t="shared" ref="D5:D64" si="1">D3+1</f>
         <v>11</v>
       </c>
       <c r="E5">
@@ -1182,7 +1182,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" ref="B20:B59" si="3">B15</f>
+        <f t="shared" ref="B20:B64" si="3">B15</f>
         <v>1-4</v>
       </c>
       <c r="C20" s="3">
@@ -2577,9 +2577,184 @@
         <v>13400</v>
       </c>
     </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-4</v>
+      </c>
+      <c r="C60" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4694469519536149E+244</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-5</v>
+      </c>
+      <c r="C61" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7347234759768074E+245</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-1</v>
+      </c>
+      <c r="C62" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6736173798840368E+245</v>
+      </c>
+      <c r="G62">
+        <v>1000</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3368086899420188E+246</v>
+      </c>
+      <c r="G63">
+        <v>1000</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-3</v>
+      </c>
+      <c r="C64" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1684043449710096E+247</v>
+      </c>
+      <c r="G64">
+        <v>1000</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>14400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B59 D2:J59">
+  <conditionalFormatting sqref="A2:B64 D2:J64">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable16.xlsx
+++ b/Assets/06.Table/TowerTable16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF262A40-9C1C-48FB-8B6A-26F633D350BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED78C39-23B2-45AA-BE4B-81971D00BA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -504,11 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F64" si="0">F3*5</f>
+        <f t="shared" ref="F4:F69" si="0">F3*5</f>
         <v>2.5000000000000001E+205</v>
       </c>
       <c r="G4">
@@ -665,7 +665,7 @@
         <v>9034</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D64" si="1">D3+1</f>
+        <f t="shared" ref="D5:D69" si="1">D3+1</f>
         <v>11</v>
       </c>
       <c r="E5">
@@ -1182,7 +1182,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" ref="B20:B64" si="3">B15</f>
+        <f t="shared" ref="B20:B70" si="3">B15</f>
         <v>1-4</v>
       </c>
       <c r="C20" s="3">
@@ -2752,9 +2752,219 @@
         <v>14400</v>
       </c>
     </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-4</v>
+      </c>
+      <c r="C65" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0842021724855048E+248</v>
+      </c>
+      <c r="G65">
+        <v>1000</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-5</v>
+      </c>
+      <c r="C66" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="0"/>
+        <v>5.421010862427524E+248</v>
+      </c>
+      <c r="G66">
+        <v>1000</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-1</v>
+      </c>
+      <c r="C67" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="0"/>
+        <v>2.710505431213762E+249</v>
+      </c>
+      <c r="G67">
+        <v>1000</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-2</v>
+      </c>
+      <c r="C68" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" ref="F68" si="4">F67*5</f>
+        <v>1.3552527156068809E+250</v>
+      </c>
+      <c r="G68">
+        <v>1000</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-3</v>
+      </c>
+      <c r="C69" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7762635780344049E+250</v>
+      </c>
+      <c r="G69">
+        <v>1000</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-4</v>
+      </c>
+      <c r="C70" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ref="D70" si="5">D68+1</f>
+        <v>44</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" ref="F70" si="6">F69*5</f>
+        <v>3.3881317890172026E+251</v>
+      </c>
+      <c r="G70">
+        <v>1000</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>15600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B64 D2:J64">
+  <conditionalFormatting sqref="A2:B70 D2:J70">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable16.xlsx
+++ b/Assets/06.Table/TowerTable16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED78C39-23B2-45AA-BE4B-81971D00BA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC20F93A-F9BC-449F-B5AD-F2A72640219E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -504,11 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F69" si="0">F3*5</f>
+        <f t="shared" ref="F4:F71" si="0">F3*5</f>
         <v>2.5000000000000001E+205</v>
       </c>
       <c r="G4">
@@ -665,7 +665,7 @@
         <v>9034</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D69" si="1">D3+1</f>
+        <f t="shared" ref="D5:D71" si="1">D3+1</f>
         <v>11</v>
       </c>
       <c r="E5">
@@ -1182,7 +1182,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" ref="B20:B70" si="3">B15</f>
+        <f t="shared" ref="B20:B76" si="3">B15</f>
         <v>1-4</v>
       </c>
       <c r="C20" s="3">
@@ -2962,9 +2962,219 @@
         <v>15600</v>
       </c>
     </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-5</v>
+      </c>
+      <c r="C71" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6940658945086012E+252</v>
+      </c>
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="H71">
+        <v>8</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-1</v>
+      </c>
+      <c r="C72" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72:D76" si="7">D70+1</f>
+        <v>45</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" ref="F72:F76" si="8">F71*5</f>
+        <v>8.470329472543006E+252</v>
+      </c>
+      <c r="G72">
+        <v>1000</v>
+      </c>
+      <c r="H72">
+        <v>8</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-2</v>
+      </c>
+      <c r="C73" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="8"/>
+        <v>4.2351647362715028E+253</v>
+      </c>
+      <c r="G73">
+        <v>1000</v>
+      </c>
+      <c r="H73">
+        <v>8</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-3</v>
+      </c>
+      <c r="C74" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="8"/>
+        <v>2.1175823681357515E+254</v>
+      </c>
+      <c r="G74">
+        <v>1000</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-4</v>
+      </c>
+      <c r="C75" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0587911840678756E+255</v>
+      </c>
+      <c r="G75">
+        <v>1000</v>
+      </c>
+      <c r="H75">
+        <v>8</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-5</v>
+      </c>
+      <c r="C76" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="8"/>
+        <v>5.2939559203393778E+255</v>
+      </c>
+      <c r="G76">
+        <v>1000</v>
+      </c>
+      <c r="H76">
+        <v>8</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>16800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B70 D2:J70">
+  <conditionalFormatting sqref="A2:B76 D2:J76">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable16.xlsx
+++ b/Assets/06.Table/TowerTable16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC20F93A-F9BC-449F-B5AD-F2A72640219E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F816BD4E-84A0-472C-85B7-48EAC50770FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -504,11 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1182,7 +1182,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" ref="B20:B76" si="3">B15</f>
+        <f t="shared" ref="B20:B83" si="3">B15</f>
         <v>1-4</v>
       </c>
       <c r="C20" s="3">
@@ -3009,14 +3009,14 @@
         <v>9034</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D76" si="7">D70+1</f>
+        <f t="shared" ref="D72:D93" si="7">D70+1</f>
         <v>45</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" ref="F72:F76" si="8">F71*5</f>
+        <f t="shared" ref="F72:F93" si="8">F71*5</f>
         <v>8.470329472543006E+252</v>
       </c>
       <c r="G72">
@@ -3172,9 +3172,604 @@
         <v>16800</v>
       </c>
     </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-1</v>
+      </c>
+      <c r="C77" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="8"/>
+        <v>2.646977960169689E+256</v>
+      </c>
+      <c r="G77">
+        <v>1000</v>
+      </c>
+      <c r="H77">
+        <v>8</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-2</v>
+      </c>
+      <c r="C78" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3234889800848446E+257</v>
+      </c>
+      <c r="G78">
+        <v>1000</v>
+      </c>
+      <c r="H78">
+        <v>8</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-3</v>
+      </c>
+      <c r="C79" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="8"/>
+        <v>6.6174449004242227E+257</v>
+      </c>
+      <c r="G79">
+        <v>1000</v>
+      </c>
+      <c r="H79">
+        <v>8</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-4</v>
+      </c>
+      <c r="C80" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="8"/>
+        <v>3.3087224502121112E+258</v>
+      </c>
+      <c r="G80">
+        <v>1000</v>
+      </c>
+      <c r="H80">
+        <v>8</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-5</v>
+      </c>
+      <c r="C81" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="8"/>
+        <v>1.6543612251060556E+259</v>
+      </c>
+      <c r="G81">
+        <v>1000</v>
+      </c>
+      <c r="H81">
+        <v>8</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-1</v>
+      </c>
+      <c r="C82" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="8"/>
+        <v>8.2718061255302788E+259</v>
+      </c>
+      <c r="G82">
+        <v>1000</v>
+      </c>
+      <c r="H82">
+        <v>8</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>1-2</v>
+      </c>
+      <c r="C83" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="8"/>
+        <v>4.1359030627651394E+260</v>
+      </c>
+      <c r="G83">
+        <v>1000</v>
+      </c>
+      <c r="H83">
+        <v>8</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f t="shared" ref="B84:B93" si="9">B79</f>
+        <v>1-3</v>
+      </c>
+      <c r="C84" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="8"/>
+        <v>2.0679515313825697E+261</v>
+      </c>
+      <c r="G84">
+        <v>1000</v>
+      </c>
+      <c r="H84">
+        <v>8</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1-4</v>
+      </c>
+      <c r="C85" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0339757656912848E+262</v>
+      </c>
+      <c r="G85">
+        <v>1000</v>
+      </c>
+      <c r="H85">
+        <v>8</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1-5</v>
+      </c>
+      <c r="C86" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="8"/>
+        <v>5.1698788284564244E+262</v>
+      </c>
+      <c r="G86">
+        <v>1000</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1-1</v>
+      </c>
+      <c r="C87" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="8"/>
+        <v>2.5849394142282122E+263</v>
+      </c>
+      <c r="G87">
+        <v>1000</v>
+      </c>
+      <c r="H87">
+        <v>8</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1-2</v>
+      </c>
+      <c r="C88" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="8"/>
+        <v>1.292469707114106E+264</v>
+      </c>
+      <c r="G88">
+        <v>1000</v>
+      </c>
+      <c r="H88">
+        <v>8</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1-3</v>
+      </c>
+      <c r="C89" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="8"/>
+        <v>6.4623485355705302E+264</v>
+      </c>
+      <c r="G89">
+        <v>1000</v>
+      </c>
+      <c r="H89">
+        <v>8</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1-4</v>
+      </c>
+      <c r="C90" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="8"/>
+        <v>3.2311742677852651E+265</v>
+      </c>
+      <c r="G90">
+        <v>1000</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1-5</v>
+      </c>
+      <c r="C91" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="8"/>
+        <v>1.6155871338926326E+266</v>
+      </c>
+      <c r="G91">
+        <v>1000</v>
+      </c>
+      <c r="H91">
+        <v>8</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1-1</v>
+      </c>
+      <c r="C92" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="8"/>
+        <v>8.0779356694631626E+266</v>
+      </c>
+      <c r="G92">
+        <v>1000</v>
+      </c>
+      <c r="H92">
+        <v>8</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1-2</v>
+      </c>
+      <c r="C93" s="3">
+        <v>9034</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="8"/>
+        <v>4.0389678347315813E+267</v>
+      </c>
+      <c r="G93">
+        <v>1000</v>
+      </c>
+      <c r="H93">
+        <v>8</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>20200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B76 D2:J76">
+  <conditionalFormatting sqref="A2:B93 D2:J93">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
